--- a/public/files/4_mar.xlsx
+++ b/public/files/4_mar.xlsx
@@ -1469,10 +1469,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="5">
-        <v>86789.0</v>
+        <v>390.0</v>
       </c>
       <c r="G17" s="5">
-        <v>1446.48333333333</v>
+        <v>6.55</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>45</v>
@@ -3324,10 +3324,10 @@
         <v>15</v>
       </c>
       <c r="F70" s="5">
-        <v>86587.0</v>
+        <v>188.0</v>
       </c>
       <c r="G70" s="5">
-        <v>1443.11666666666</v>
+        <v>3.11</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>111</v>
@@ -4794,10 +4794,10 @@
         <v>15</v>
       </c>
       <c r="F112" s="5">
-        <v>86930.0</v>
+        <v>530.0</v>
       </c>
       <c r="G112" s="5">
-        <v>1448.83333333333</v>
+        <v>8.8333333</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>164</v>
